--- a/vânia/exercicio.xlsx
+++ b/vânia/exercicio.xlsx
@@ -25,6 +25,8 @@
   </sheets>
   <definedNames>
     <definedName name="feriados">Planilha5!$A$6:$A$7</definedName>
+    <definedName name="feriados2">Planilha10!$E$6:$E$8</definedName>
+    <definedName name="feriadotrab">Planilha10!$E$7:$E$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Data Início</t>
   </si>
@@ -74,12 +76,6 @@
     <t>Data inicial</t>
   </si>
   <si>
-    <t>Dias trabalhados</t>
-  </si>
-  <si>
-    <t>Jornada</t>
-  </si>
-  <si>
     <t>Data de Reajuste</t>
   </si>
   <si>
@@ -87,16 +83,27 @@
   </si>
   <si>
     <t>Valor da Hora</t>
+  </si>
+  <si>
+    <t>Total de dias trabalhados</t>
+  </si>
+  <si>
+    <t>Jornada por dia</t>
+  </si>
+  <si>
+    <t>Recebeu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #.##0.00_-;\-&quot;R$&quot;\ * #.##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,18 +143,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -494,75 +531,140 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="7">
         <v>43466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <f>EOMONTH(B1,5)</f>
-        <v>43646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" s="7">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <f>NETWORKDAYS.INTL(B2,B1,1)</f>
-        <v>-129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E6" s="1">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="E7" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="E8" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
-        <v>10</v>
-      </c>
+      <c r="B10" s="8">
+        <f>NETWORKDAYS(B1,B2,feriadotrab)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12">
+        <f>NETWORKDAYS(B1,EOMONTH(B1,2),feriados2)*(B6*B3)+NETWORKDAYS(B4,EOMONTH(B4,1),feriados2)*(B6*(B3+B5))</f>
+        <v>25040</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -634,7 +736,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +776,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +885,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +917,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +984,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
